--- a/doc/Burndown_Charts/Sprint 3 Burndown.xlsx
+++ b/doc/Burndown_Charts/Sprint 3 Burndown.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CowUser\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Desktop\IFB299 Artifacts\Release 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Task</t>
   </si>
@@ -96,6 +96,15 @@
   </si>
   <si>
     <t>T37</t>
+  </si>
+  <si>
+    <t>T38</t>
+  </si>
+  <si>
+    <t>T39</t>
+  </si>
+  <si>
+    <t>T40</t>
   </si>
 </sst>
 </file>
@@ -119,7 +128,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,6 +156,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -178,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -197,6 +212,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -229,6 +245,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Sprint 3 Burndown Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -268,6 +309,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal Estimated Remaining Hours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -282,39 +334,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$14:$L$14</c:f>
+              <c:f>Sheet1!$B$18:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.7</c:v>
+                  <c:v>12.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.399999999999999</c:v>
+                  <c:v>11.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.0999999999999979</c:v>
+                  <c:v>9.7999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.799999999999998</c:v>
+                  <c:v>8.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.4999999999999982</c:v>
+                  <c:v>6.9999999999999982</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.1999999999999984</c:v>
+                  <c:v>5.5999999999999979</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8999999999999986</c:v>
+                  <c:v>4.1999999999999975</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.5999999999999988</c:v>
+                  <c:v>2.7999999999999976</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2999999999999987</c:v>
+                  <c:v>1.3999999999999977</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -327,6 +379,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual Estimated Remaining Hours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -341,18 +404,42 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$15:$L$15</c:f>
+              <c:f>Sheet1!$B$19:$L$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.75</c:v>
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -368,16 +455,76 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="434179456"/>
-        <c:axId val="166518384"/>
+        <c:axId val="179126656"/>
+        <c:axId val="179127040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="434179456"/>
+        <c:axId val="179126656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Sprint</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> Day</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -414,7 +561,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166518384"/>
+        <c:crossAx val="179127040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -422,7 +569,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="166518384"/>
+        <c:axId val="179127040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -442,6 +589,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Effort</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> Remaining (hours)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -473,9 +681,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434179456"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="179126656"/>
+        <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1115,15 +1324,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>3571</xdr:rowOff>
+      <xdr:colOff>488156</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>15477</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>79771</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>452436</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1408,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1503,7 +1712,9 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="I3" s="10">
+        <v>0.5</v>
+      </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -1520,8 +1731,12 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="H4" s="10">
+        <v>1</v>
+      </c>
+      <c r="I4" s="10">
+        <v>1</v>
+      </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
@@ -1541,7 +1756,9 @@
       <c r="H5" s="5"/>
       <c r="I5" s="1"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="K5" s="10">
+        <v>0.5</v>
+      </c>
       <c r="L5" s="5"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1549,17 +1766,17 @@
         <v>17</v>
       </c>
       <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="I6" s="10">
+        <v>0.25</v>
+      </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
@@ -1569,7 +1786,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="3">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1577,7 +1794,9 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="I7" s="10">
+        <v>0.25</v>
+      </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -1587,11 +1806,9 @@
         <v>19</v>
       </c>
       <c r="B8" s="3">
-        <v>2</v>
-      </c>
-      <c r="C8" s="5">
-        <v>2</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -1599,7 +1816,9 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="K8" s="10">
+        <v>0.5</v>
+      </c>
       <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1607,14 +1826,16 @@
         <v>20</v>
       </c>
       <c r="B9" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="H9" s="10">
+        <v>1</v>
+      </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -1632,7 +1853,9 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="H10" s="10">
+        <v>1</v>
+      </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -1643,15 +1866,17 @@
         <v>22</v>
       </c>
       <c r="B11" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0.25</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="G11" s="10">
+        <v>1</v>
+      </c>
+      <c r="H11" s="10">
+        <v>1</v>
+      </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -1662,103 +1887,82 @@
         <v>23</v>
       </c>
       <c r="B12" s="3">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="G12" s="10">
+        <v>1</v>
+      </c>
+      <c r="H12" s="10">
+        <v>1.5</v>
+      </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="7">
-        <v>13</v>
-      </c>
-      <c r="C14" s="7">
-        <f>SUM(B14-1.3)</f>
-        <v>11.7</v>
-      </c>
-      <c r="D14" s="7">
-        <f t="shared" ref="D14:L14" si="0">SUM(C14-1.3)</f>
-        <v>10.399999999999999</v>
-      </c>
-      <c r="E14" s="7">
-        <f t="shared" si="0"/>
-        <v>9.0999999999999979</v>
-      </c>
-      <c r="F14" s="7">
-        <f t="shared" si="0"/>
-        <v>7.799999999999998</v>
-      </c>
-      <c r="G14" s="7">
-        <f t="shared" si="0"/>
-        <v>6.4999999999999982</v>
-      </c>
-      <c r="H14" s="7">
-        <f t="shared" si="0"/>
-        <v>5.1999999999999984</v>
-      </c>
-      <c r="I14" s="7">
-        <f t="shared" si="0"/>
-        <v>3.8999999999999986</v>
-      </c>
-      <c r="J14" s="7">
-        <f t="shared" si="0"/>
-        <v>2.5999999999999988</v>
-      </c>
-      <c r="K14" s="7">
-        <f t="shared" si="0"/>
-        <v>1.2999999999999987</v>
-      </c>
-      <c r="L14" s="7">
-        <v>0</v>
-      </c>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="7">
-        <v>13</v>
-      </c>
-      <c r="C15" s="7">
-        <f>B15-C6-C8</f>
-        <v>10</v>
-      </c>
-      <c r="D15" s="7">
-        <f>C15-D11</f>
-        <v>9.75</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
@@ -1788,6 +1992,102 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
     </row>
+    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="7">
+        <f>SUM(B3:B15)</f>
+        <v>14</v>
+      </c>
+      <c r="C18" s="7">
+        <f>SUM(B18-1.4)</f>
+        <v>12.6</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" ref="D18:K18" si="0">SUM(C18-1.4)</f>
+        <v>11.2</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="shared" si="0"/>
+        <v>9.7999999999999989</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" si="0"/>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" si="0"/>
+        <v>6.9999999999999982</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="0"/>
+        <v>5.5999999999999979</v>
+      </c>
+      <c r="I18" s="7">
+        <f t="shared" si="0"/>
+        <v>4.1999999999999975</v>
+      </c>
+      <c r="J18" s="7">
+        <f t="shared" si="0"/>
+        <v>2.7999999999999976</v>
+      </c>
+      <c r="K18" s="7">
+        <f t="shared" si="0"/>
+        <v>1.3999999999999977</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="7">
+        <f>SUM(B3:B15)</f>
+        <v>14</v>
+      </c>
+      <c r="C19" s="7">
+        <f>B19-SUM(C3:C15)</f>
+        <v>14</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" ref="D19:K19" si="1">C19-SUM(D3:D15)</f>
+        <v>14</v>
+      </c>
+      <c r="E19" s="7">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J19" s="7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K19" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/doc/Burndown_Charts/Sprint 3 Burndown.xlsx
+++ b/doc/Burndown_Charts/Sprint 3 Burndown.xlsx
@@ -128,7 +128,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,12 +156,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -193,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -212,7 +206,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,22 +417,22 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.5</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -455,11 +448,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="179126656"/>
-        <c:axId val="179127040"/>
+        <c:axId val="187363128"/>
+        <c:axId val="112711152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="179126656"/>
+        <c:axId val="187363128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -561,7 +554,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179127040"/>
+        <c:crossAx val="112711152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -569,7 +562,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="179127040"/>
+        <c:axId val="112711152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -681,7 +674,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179126656"/>
+        <c:crossAx val="187363128"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1619,8 +1612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1631,34 +1624,34 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="4">
+        <v>42641</v>
+      </c>
+      <c r="D1" s="4">
+        <v>42642</v>
+      </c>
+      <c r="E1" s="4">
+        <v>42643</v>
+      </c>
+      <c r="F1" s="4">
         <v>42646</v>
       </c>
-      <c r="D1" s="4">
+      <c r="G1" s="4">
         <v>42647</v>
       </c>
-      <c r="E1" s="4">
+      <c r="H1" s="4">
         <v>42648</v>
       </c>
-      <c r="F1" s="4">
+      <c r="I1" s="4">
         <v>42649</v>
       </c>
-      <c r="G1" s="4">
+      <c r="J1" s="4">
         <v>42650</v>
       </c>
-      <c r="H1" s="4">
+      <c r="K1" s="4">
         <v>42653</v>
       </c>
-      <c r="I1" s="4">
+      <c r="L1" s="4">
         <v>42654</v>
-      </c>
-      <c r="J1" s="4">
-        <v>42655</v>
-      </c>
-      <c r="K1" s="4">
-        <v>42656</v>
-      </c>
-      <c r="L1" s="4">
-        <v>42657</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1712,12 +1705,12 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="10">
-        <v>0.5</v>
-      </c>
+      <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="L3" s="5">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1731,15 +1724,13 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="10">
-        <v>1</v>
-      </c>
-      <c r="I4" s="10">
-        <v>1</v>
-      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="L4" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1756,9 +1747,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="1"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="10">
-        <v>0.5</v>
-      </c>
+      <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1774,12 +1763,12 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="10">
-        <v>0.25</v>
-      </c>
+      <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="L6" s="5">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1794,12 +1783,12 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="10">
-        <v>0.25</v>
-      </c>
+      <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="L7" s="5">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1816,9 +1805,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="10">
-        <v>0.5</v>
-      </c>
+      <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1833,12 +1820,12 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="10">
-        <v>1</v>
-      </c>
+      <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="K9" s="5">
+        <v>1</v>
+      </c>
       <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1853,12 +1840,12 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="10">
-        <v>1</v>
-      </c>
+      <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1871,15 +1858,13 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="10">
-        <v>1</v>
-      </c>
-      <c r="H11" s="10">
-        <v>1</v>
-      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="K11" s="5">
+        <v>2</v>
+      </c>
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1893,15 +1878,13 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="10">
-        <v>1</v>
-      </c>
-      <c r="H12" s="10">
-        <v>1.5</v>
-      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="K12" s="5">
+        <v>2.5</v>
+      </c>
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1919,9 +1902,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="10">
-        <v>0.5</v>
-      </c>
+      <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1937,12 +1918,12 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="10">
-        <v>0.5</v>
-      </c>
+      <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
+      <c r="L14" s="5">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1959,9 +1940,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="10">
-        <v>0.5</v>
-      </c>
+      <c r="K15" s="5"/>
       <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2045,7 +2024,6 @@
         <v>12</v>
       </c>
       <c r="B19" s="7">
-        <f>SUM(B3:B15)</f>
         <v>14</v>
       </c>
       <c r="C19" s="7">
@@ -2053,7 +2031,7 @@
         <v>14</v>
       </c>
       <c r="D19" s="7">
-        <f t="shared" ref="D19:K19" si="1">C19-SUM(D3:D15)</f>
+        <f t="shared" ref="D19:L19" si="1">C19-SUM(D3:D15)</f>
         <v>14</v>
       </c>
       <c r="E19" s="7">
@@ -2066,26 +2044,27 @@
       </c>
       <c r="G19" s="7">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="1"/>
-        <v>6.5</v>
+        <v>14</v>
       </c>
       <c r="I19" s="7">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J19" s="7">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K19" s="7">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="L19" s="7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
